--- a/data/autoReply/lexicon/608443475.xlsx
+++ b/data/autoReply/lexicon/608443475.xlsx
@@ -1039,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -1143,6 +1143,18 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>五仁月饼</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>狗都不吃</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
